--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H2">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J2">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>14.95610897476</v>
+        <v>0.006873763961777779</v>
       </c>
       <c r="R2">
-        <v>134.60498077284</v>
+        <v>0.06186387565600001</v>
       </c>
       <c r="S2">
-        <v>0.001290318074437043</v>
+        <v>6.491469161191537E-07</v>
       </c>
       <c r="T2">
-        <v>0.001290318074437042</v>
+        <v>6.491469161191535E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H3">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J3">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>730.8231732860891</v>
+        <v>1.707269922557333</v>
       </c>
       <c r="R3">
-        <v>6577.408559574802</v>
+        <v>15.365429303016</v>
       </c>
       <c r="S3">
-        <v>0.06305078087488378</v>
+        <v>0.0001612317518282145</v>
       </c>
       <c r="T3">
-        <v>0.06305078087488378</v>
+        <v>0.0001612317518282145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.172093</v>
+        <v>0.01675466666666667</v>
       </c>
       <c r="H4">
-        <v>21.516279</v>
+        <v>0.050264</v>
       </c>
       <c r="I4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="J4">
-        <v>0.07357387076805701</v>
+        <v>0.0001854906931657378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>107.017288369271</v>
+        <v>0.2500021952026666</v>
       </c>
       <c r="R4">
-        <v>963.1555953234391</v>
+        <v>2.250019756824</v>
       </c>
       <c r="S4">
-        <v>0.009232771818736187</v>
+        <v>2.360979442140413E-05</v>
       </c>
       <c r="T4">
-        <v>0.009232771818736184</v>
+        <v>2.360979442140413E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J5">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>187.11467297764</v>
+        <v>36.81238532419433</v>
       </c>
       <c r="R5">
-        <v>1684.03205679876</v>
+        <v>331.311467917749</v>
       </c>
       <c r="S5">
-        <v>0.01614306534827182</v>
+        <v>0.00347650087216703</v>
       </c>
       <c r="T5">
-        <v>0.01614306534827182</v>
+        <v>0.003476500872167029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J6">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>9143.269770545519</v>
@@ -818,10 +818,10 @@
         <v>82289.42793490969</v>
       </c>
       <c r="S6">
-        <v>0.7888232336564687</v>
+        <v>0.8634752964749809</v>
       </c>
       <c r="T6">
-        <v>0.7888232336564686</v>
+        <v>0.8634752964749808</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206305</v>
       </c>
       <c r="J7">
-        <v>0.9204767624852804</v>
+        <v>0.9933938536206304</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,13 +865,13 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
         <v>1338.884662445519</v>
@@ -880,10 +880,10 @@
         <v>12049.96196200967</v>
       </c>
       <c r="S7">
-        <v>0.11551046348054</v>
+        <v>0.1264420562734826</v>
       </c>
       <c r="T7">
-        <v>0.11551046348054</v>
+        <v>0.1264420562734826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
         <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J8">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>1.209388285066667</v>
+        <v>0.2379314612155556</v>
       </c>
       <c r="R8">
-        <v>10.8844945656</v>
+        <v>2.14138315094</v>
       </c>
       <c r="S8">
-        <v>0.0001043383386593022</v>
+        <v>2.246985423919845E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001043383386593022</v>
+        <v>2.246985423919844E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
         <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J9">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
-        <v>59.09618509192666</v>
+        <v>59.09618509192668</v>
       </c>
       <c r="R9">
-        <v>531.86566582734</v>
+        <v>531.8656658273401</v>
       </c>
       <c r="S9">
-        <v>0.00509844344428585</v>
+        <v>0.005580946119207333</v>
       </c>
       <c r="T9">
-        <v>0.005098443444285848</v>
+        <v>0.00558094611920733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5799533333333333</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
         <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203657</v>
       </c>
       <c r="J10">
-        <v>0.005949366746662453</v>
+        <v>0.006420655686203655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
         <v>8.653684930473334</v>
@@ -1066,10 +1066,10 @@
         <v>77.88316437426001</v>
       </c>
       <c r="S10">
-        <v>0.0007465849637173018</v>
+        <v>0.0008172397127571263</v>
       </c>
       <c r="T10">
-        <v>0.0007465849637173015</v>
+        <v>0.0008172397127571261</v>
       </c>
     </row>
   </sheetData>
